--- a/部落竞赛/ClanCompetition.xlsx
+++ b/部落竞赛/ClanCompetition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32055" windowHeight="15120"/>
+    <workbookView windowWidth="30540" windowHeight="18030"/>
   </bookViews>
   <sheets>
     <sheet name="任务列表" sheetId="1" r:id="rId1"/>
@@ -3182,9 +3182,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3214,7 +3214,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3222,46 +3222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3269,14 +3230,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3290,21 +3243,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3320,20 +3283,59 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3348,19 +3350,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3397,7 +3397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3409,7 +3415,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3421,7 +3469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3433,13 +3511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3451,7 +3523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3463,73 +3547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3541,25 +3559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3708,11 +3708,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3736,37 +3772,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3774,23 +3780,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3805,6 +3796,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3813,10 +3813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3825,139 +3825,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4419,10 +4419,10 @@
   <sheetPr/>
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4584,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12">
         <v>100</v>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "104","priority":1,"Caption": "GET_BUILDERBATTLEDESTRUCTION","conditionType":1,"conditionParamTroopOrTHMin":100,"conditionParamTHMax": 12}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "104","priority":1,"Caption": "GET_BUILDERBATTLEDESTRUCTION","conditionType":8,"conditionParamTroopOrTHMin":100,"conditionParamTHMax": 12}},</v>
       </c>
       <c r="L5" s="18"/>
     </row>
@@ -6357,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="15">
         <v>4</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="K57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "301","priority":2,"Caption": "USE_RAGEDBARBARIANS","conditionType":3,"conditionParamTroopOrTHMin":0,"conditionParamTHMax": 4}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "301","priority":2,"Caption": "USE_RAGEDBARBARIANS","conditionType":3,"conditionParamTroopOrTHMin":1,"conditionParamTHMax": 4}},</v>
       </c>
       <c r="L57" s="18"/>
     </row>
@@ -6391,7 +6391,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="15">
         <v>4</v>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="K58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "302","priority":2,"Caption": "USE_SNEAKYARCHERS","conditionType":3,"conditionParamTroopOrTHMin":1,"conditionParamTHMax": 4}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "302","priority":2,"Caption": "USE_SNEAKYARCHERS","conditionType":3,"conditionParamTroopOrTHMin":2,"conditionParamTHMax": 4}},</v>
       </c>
       <c r="L58" s="18"/>
     </row>
@@ -6425,7 +6425,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="15">
         <v>2</v>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="K59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "303","priority":2,"Caption": "USE_BOXERGIANTS","conditionType":3,"conditionParamTroopOrTHMin":2,"conditionParamTHMax": 2}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "303","priority":2,"Caption": "USE_BOXERGIANTS","conditionType":3,"conditionParamTroopOrTHMin":3,"conditionParamTHMax": 2}},</v>
       </c>
       <c r="L59" s="18"/>
     </row>
@@ -6459,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" s="15">
         <v>8</v>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="K60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "304","priority":2,"Caption": "USE_BETAMINIONS","conditionType":3,"conditionParamTroopOrTHMin":3,"conditionParamTHMax": 8}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "304","priority":2,"Caption": "USE_BETAMINIONS","conditionType":3,"conditionParamTroopOrTHMin":4,"conditionParamTHMax": 8}},</v>
       </c>
       <c r="L60" s="18"/>
     </row>
@@ -6493,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="15">
         <v>1</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="K61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "305","priority":2,"Caption": "USE_BOMBERS","conditionType":3,"conditionParamTroopOrTHMin":4,"conditionParamTHMax": 1}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "305","priority":2,"Caption": "USE_BOMBERS","conditionType":3,"conditionParamTroopOrTHMin":5,"conditionParamTHMax": 1}},</v>
       </c>
       <c r="L61" s="18"/>
     </row>
@@ -6527,7 +6527,7 @@
         <v>3</v>
       </c>
       <c r="F62" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G62" s="15">
         <v>2</v>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="K62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "306","priority":2,"Caption": "USE_BABYDRAGONS2","conditionType":3,"conditionParamTroopOrTHMin":5,"conditionParamTHMax": 2}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "306","priority":2,"Caption": "USE_BABYDRAGONS2","conditionType":3,"conditionParamTroopOrTHMin":6,"conditionParamTHMax": 2}},</v>
       </c>
       <c r="L62" s="18"/>
     </row>
@@ -6561,7 +6561,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" s="15">
         <v>2</v>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="K63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "307","priority":2,"Caption": "USE_CANNONCARTS","conditionType":3,"conditionParamTroopOrTHMin":6,"conditionParamTHMax": 2}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "307","priority":2,"Caption": "USE_CANNONCARTS","conditionType":3,"conditionParamTroopOrTHMin":7,"conditionParamTHMax": 2}},</v>
       </c>
       <c r="L63" s="18"/>
     </row>
@@ -6595,7 +6595,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G64" s="15">
         <v>2</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="K64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "308","priority":2,"Caption": "USE_NIGHTWITCHES","conditionType":3,"conditionParamTroopOrTHMin":7,"conditionParamTHMax": 2}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "308","priority":2,"Caption": "USE_NIGHTWITCHES","conditionType":3,"conditionParamTroopOrTHMin":8,"conditionParamTHMax": 2}},</v>
       </c>
       <c r="L64" s="18"/>
     </row>
@@ -6629,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="15">
         <v>2</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="K65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{"SClanCompetitionItem": {"subSceneID": "309","priority":2,"Caption": "USE_DROPSHIPS","conditionType":3,"conditionParamTroopOrTHMin":8,"conditionParamTHMax": 2}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "309","priority":2,"Caption": "USE_DROPSHIPS","conditionType":3,"conditionParamTroopOrTHMin":9,"conditionParamTHMax": 2}},</v>
       </c>
       <c r="L65" s="18"/>
     </row>
@@ -6663,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="F66" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="15">
         <v>1</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="K66" s="7" t="str">
         <f t="shared" ref="K66:K104" si="1">"{""SClanCompetitionItem"": {""subSceneID"": """&amp;B66&amp;""",""priority"":"&amp;C66&amp;",""Caption"": """&amp;D66&amp;""",""conditionType"":"&amp;E66&amp;",""conditionParamTroopOrTHMin"":"&amp;F66&amp;",""conditionParamTHMax"": "&amp;G66&amp;"}},"</f>
-        <v>{"SClanCompetitionItem": {"subSceneID": "310","priority":2,"Caption": "USE_MEGAPEKKA","conditionType":3,"conditionParamTroopOrTHMin":9,"conditionParamTHMax": 1}},</v>
+        <v>{"SClanCompetitionItem": {"subSceneID": "310","priority":2,"Caption": "USE_MEGAPEKKA","conditionType":3,"conditionParamTroopOrTHMin":10,"conditionParamTHMax": 1}},</v>
       </c>
       <c r="L66" s="18"/>
     </row>
